--- a/improvised_data_test.xlsx
+++ b/improvised_data_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\us-elections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88B2D14-23A9-40F3-98FD-83266E011C1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B9C005-2D5D-4813-A134-A68949B4A6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D4B94272-EB60-47C4-936E-CD07D9577622}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="34">
   <si>
     <t>Female</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Attention to election</t>
+  </si>
+  <si>
+    <t>Some</t>
   </si>
 </sst>
 </file>
@@ -524,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E1310C-D1F7-4C91-8327-442254FF08D0}">
   <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="G301" sqref="G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,22 +577,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -600,13 +603,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -615,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -626,22 +629,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -649,13 +652,13 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -664,10 +667,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -678,22 +681,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -701,25 +704,25 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -727,16 +730,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
@@ -745,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -759,10 +762,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -771,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -779,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -808,22 +811,22 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -831,25 +834,25 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -857,25 +860,25 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -883,25 +886,25 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -909,7 +912,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -921,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -935,13 +938,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
@@ -950,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -961,25 +964,25 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -993,19 +996,19 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1019,19 +1022,19 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1039,25 +1042,25 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1065,25 +1068,25 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1091,25 +1094,25 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1117,25 +1120,25 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1146,22 +1149,22 @@
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1169,25 +1172,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1195,25 +1198,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1221,25 +1224,25 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,25 +1250,25 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1273,25 +1276,25 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1302,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -1311,13 +1314,13 @@
         <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1328,22 +1331,22 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1351,25 +1354,25 @@
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1377,16 +1380,16 @@
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>14</v>
@@ -1395,7 +1398,7 @@
         <v>6</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1403,7 +1406,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -1412,16 +1415,16 @@
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1429,25 +1432,25 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1455,16 +1458,16 @@
         <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>11</v>
@@ -1473,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1490,16 +1493,16 @@
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1507,25 +1510,25 @@
         <v>24</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1533,25 +1536,25 @@
         <v>24</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1559,25 +1562,25 @@
         <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1585,25 +1588,25 @@
         <v>24</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1614,22 +1617,22 @@
         <v>21</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1637,25 +1640,25 @@
         <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1669,19 +1672,19 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1689,16 +1692,16 @@
         <v>24</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -1707,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1718,22 +1721,22 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1741,16 +1744,16 @@
         <v>24</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -1759,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1767,25 +1770,25 @@
         <v>24</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1793,25 +1796,25 @@
         <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1819,25 +1822,25 @@
         <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1845,25 +1848,25 @@
         <v>24</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1871,25 +1874,25 @@
         <v>24</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1900,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -1912,10 +1915,10 @@
         <v>5</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1923,25 +1926,25 @@
         <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1949,25 +1952,25 @@
         <v>24</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1975,13 +1978,13 @@
         <v>24</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>4</v>
@@ -1993,7 +1996,7 @@
         <v>17</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2001,25 +2004,25 @@
         <v>24</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2027,25 +2030,25 @@
         <v>24</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2053,25 +2056,25 @@
         <v>24</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2079,25 +2082,25 @@
         <v>24</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2105,10 +2108,10 @@
         <v>24</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>3</v>
@@ -2120,10 +2123,10 @@
         <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2143,13 +2146,13 @@
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2160,22 +2163,22 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2183,25 +2186,25 @@
         <v>24</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2212,22 +2215,22 @@
         <v>20</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2235,25 +2238,25 @@
         <v>24</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2261,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>4</v>
@@ -2276,10 +2279,10 @@
         <v>14</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2287,25 +2290,25 @@
         <v>24</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2313,13 +2316,13 @@
         <v>24</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>10</v>
@@ -2328,10 +2331,10 @@
         <v>14</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2339,25 +2342,25 @@
         <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2365,25 +2368,25 @@
         <v>24</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2391,25 +2394,25 @@
         <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2417,16 +2420,16 @@
         <v>24</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -2435,7 +2438,7 @@
         <v>6</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2443,25 +2446,25 @@
         <v>24</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2469,25 +2472,25 @@
         <v>24</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2495,25 +2498,25 @@
         <v>24</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2521,25 +2524,25 @@
         <v>24</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2547,25 +2550,25 @@
         <v>24</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2573,25 +2576,25 @@
         <v>24</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2599,25 +2602,25 @@
         <v>24</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2625,25 +2628,25 @@
         <v>24</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2651,25 +2654,25 @@
         <v>24</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2677,25 +2680,25 @@
         <v>24</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2703,13 +2706,13 @@
         <v>24</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>10</v>
@@ -2721,7 +2724,7 @@
         <v>6</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,22 +2735,22 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2755,25 +2758,25 @@
         <v>24</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2781,16 +2784,16 @@
         <v>24</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>14</v>
@@ -2799,7 +2802,7 @@
         <v>6</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2810,13 +2813,13 @@
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>14</v>
@@ -2825,15 +2828,15 @@
         <v>17</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -2848,24 +2851,24 @@
         <v>14</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>10</v>
@@ -2877,41 +2880,41 @@
         <v>6</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -2920,30 +2923,30 @@
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>10</v>
@@ -2952,96 +2955,96 @@
         <v>14</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>15</v>
@@ -3053,24 +3056,24 @@
         <v>10</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>12</v>
@@ -3079,56 +3082,56 @@
         <v>13</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>14</v>
@@ -3137,67 +3140,67 @@
         <v>6</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -3206,85 +3209,85 @@
         <v>3</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>14</v>
@@ -3293,99 +3296,99 @@
         <v>17</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>4</v>
@@ -3394,44 +3397,44 @@
         <v>14</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>15</v>
@@ -3440,56 +3443,56 @@
         <v>3</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>13</v>
@@ -3498,62 +3501,62 @@
         <v>5</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3561,25 +3564,25 @@
         <v>0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3590,22 +3593,22 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3613,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>3</v>
@@ -3631,7 +3634,7 @@
         <v>6</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3639,25 +3642,25 @@
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3668,22 +3671,22 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3691,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>15</v>
@@ -3700,16 +3703,16 @@
         <v>3</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3717,25 +3720,25 @@
         <v>0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3746,22 +3749,22 @@
         <v>8</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3769,10 +3772,10 @@
         <v>0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>3</v>
@@ -3781,13 +3784,13 @@
         <v>10</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3795,25 +3798,25 @@
         <v>0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3821,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>4</v>
@@ -3839,7 +3842,7 @@
         <v>6</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3850,22 +3853,22 @@
         <v>21</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3873,25 +3876,25 @@
         <v>0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3902,22 +3905,22 @@
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3928,22 +3931,22 @@
         <v>21</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3951,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>15</v>
@@ -3969,7 +3972,7 @@
         <v>17</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3977,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>18</v>
@@ -3986,16 +3989,16 @@
         <v>12</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4003,25 +4006,25 @@
         <v>0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4029,13 +4032,13 @@
         <v>0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>10</v>
@@ -4044,10 +4047,10 @@
         <v>14</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4055,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4084,22 +4087,22 @@
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4107,25 +4110,25 @@
         <v>0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4133,25 +4136,25 @@
         <v>0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4162,7 +4165,7 @@
         <v>8</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>3</v>
@@ -4171,13 +4174,13 @@
         <v>13</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4185,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>10</v>
@@ -4203,7 +4206,7 @@
         <v>17</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4211,25 +4214,25 @@
         <v>0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4237,25 +4240,25 @@
         <v>0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4266,22 +4269,22 @@
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4292,22 +4295,22 @@
         <v>8</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4318,10 +4321,10 @@
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>4</v>
@@ -4330,10 +4333,10 @@
         <v>5</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4341,13 +4344,13 @@
         <v>0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>10</v>
@@ -4359,7 +4362,7 @@
         <v>17</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4373,19 +4376,19 @@
         <v>18</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4393,25 +4396,25 @@
         <v>0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4419,25 +4422,25 @@
         <v>0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4445,25 +4448,25 @@
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4471,25 +4474,25 @@
         <v>0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4503,19 +4506,19 @@
         <v>18</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4526,13 +4529,13 @@
         <v>21</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>11</v>
@@ -4541,7 +4544,7 @@
         <v>6</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4549,16 +4552,16 @@
         <v>0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>14</v>
@@ -4567,7 +4570,7 @@
         <v>6</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4575,13 +4578,13 @@
         <v>0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>13</v>
@@ -4590,10 +4593,10 @@
         <v>5</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4601,25 +4604,25 @@
         <v>0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4627,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>15</v>
@@ -4636,16 +4639,16 @@
         <v>12</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4653,25 +4656,25 @@
         <v>0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4679,25 +4682,25 @@
         <v>0</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4714,7 +4717,7 @@
         <v>3</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>5</v>
@@ -4723,7 +4726,7 @@
         <v>17</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4737,19 +4740,19 @@
         <v>18</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4757,25 +4760,25 @@
         <v>0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4783,25 +4786,25 @@
         <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4809,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -4818,16 +4821,16 @@
         <v>12</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4835,10 +4838,10 @@
         <v>0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>12</v>
@@ -4847,13 +4850,13 @@
         <v>10</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4861,13 +4864,13 @@
         <v>0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>13</v>
@@ -4879,7 +4882,7 @@
         <v>17</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4887,25 +4890,25 @@
         <v>0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4913,25 +4916,25 @@
         <v>0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4939,10 +4942,10 @@
         <v>0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>3</v>
@@ -4954,10 +4957,10 @@
         <v>11</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4968,13 +4971,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>14</v>
@@ -4983,7 +4986,7 @@
         <v>6</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4991,25 +4994,25 @@
         <v>0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5020,22 +5023,22 @@
         <v>8</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5043,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -5052,7 +5055,7 @@
         <v>12</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>5</v>
@@ -5061,7 +5064,7 @@
         <v>17</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5072,22 +5075,22 @@
         <v>1</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5095,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>3</v>
@@ -5107,13 +5110,13 @@
         <v>10</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5121,25 +5124,25 @@
         <v>0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5153,19 +5156,19 @@
         <v>18</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5173,16 +5176,16 @@
         <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>5</v>
@@ -5191,7 +5194,7 @@
         <v>6</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5199,25 +5202,25 @@
         <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5225,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>3</v>
@@ -5237,13 +5240,13 @@
         <v>13</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5251,13 +5254,13 @@
         <v>0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>13</v>
@@ -5269,7 +5272,7 @@
         <v>6</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5277,25 +5280,25 @@
         <v>0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5315,13 +5318,13 @@
         <v>13</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5332,22 +5335,22 @@
         <v>8</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5355,25 +5358,25 @@
         <v>0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5381,25 +5384,25 @@
         <v>0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5416,16 +5419,16 @@
         <v>3</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5433,25 +5436,25 @@
         <v>0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5459,13 +5462,13 @@
         <v>0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>4</v>
@@ -5477,7 +5480,7 @@
         <v>6</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5485,16 +5488,16 @@
         <v>0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>11</v>
@@ -5503,7 +5506,7 @@
         <v>6</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5511,25 +5514,25 @@
         <v>0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5537,25 +5540,25 @@
         <v>0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5566,22 +5569,22 @@
         <v>8</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5589,25 +5592,25 @@
         <v>0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5618,22 +5621,22 @@
         <v>1</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5644,13 +5647,13 @@
         <v>1</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>11</v>
@@ -5659,7 +5662,7 @@
         <v>6</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5673,19 +5676,19 @@
         <v>15</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5693,25 +5696,25 @@
         <v>0</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5722,22 +5725,22 @@
         <v>1</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5748,22 +5751,22 @@
         <v>21</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5774,22 +5777,22 @@
         <v>1</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5797,25 +5800,25 @@
         <v>0</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5823,25 +5826,25 @@
         <v>0</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5849,25 +5852,25 @@
         <v>0</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5875,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>3</v>
@@ -5887,13 +5890,13 @@
         <v>10</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5901,25 +5904,25 @@
         <v>0</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5936,16 +5939,16 @@
         <v>12</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5953,25 +5956,25 @@
         <v>0</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5979,25 +5982,25 @@
         <v>0</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6011,19 +6014,19 @@
         <v>2</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6031,16 +6034,16 @@
         <v>0</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>5</v>
@@ -6049,7 +6052,7 @@
         <v>6</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6063,19 +6066,19 @@
         <v>2</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6089,19 +6092,19 @@
         <v>15</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6109,25 +6112,25 @@
         <v>0</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6135,16 +6138,16 @@
         <v>0</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>11</v>
@@ -6153,7 +6156,7 @@
         <v>6</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6164,22 +6167,22 @@
         <v>21</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6187,25 +6190,25 @@
         <v>0</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6213,25 +6216,25 @@
         <v>0</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6239,25 +6242,25 @@
         <v>0</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6271,19 +6274,19 @@
         <v>2</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6291,25 +6294,25 @@
         <v>0</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6320,22 +6323,22 @@
         <v>8</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6343,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>15</v>
@@ -6352,16 +6355,16 @@
         <v>3</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6369,25 +6372,25 @@
         <v>0</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6398,13 +6401,13 @@
         <v>21</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>11</v>
@@ -6413,7 +6416,7 @@
         <v>6</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6421,25 +6424,25 @@
         <v>0</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6447,25 +6450,25 @@
         <v>0</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6476,22 +6479,22 @@
         <v>1</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6499,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
@@ -6508,7 +6511,7 @@
         <v>9</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>5</v>
@@ -6517,7 +6520,7 @@
         <v>6</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6525,16 +6528,16 @@
         <v>0</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>5</v>
@@ -6543,7 +6546,7 @@
         <v>6</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6554,22 +6557,22 @@
         <v>1</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6577,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
@@ -6592,10 +6595,10 @@
         <v>11</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6609,7 +6612,7 @@
         <v>2</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>13</v>
@@ -6618,10 +6621,10 @@
         <v>14</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6629,25 +6632,25 @@
         <v>0</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6655,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>15</v>
@@ -6667,13 +6670,13 @@
         <v>4</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6681,25 +6684,25 @@
         <v>0</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6707,25 +6710,25 @@
         <v>0</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6739,33 +6742,33 @@
         <v>2</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>10</v>
@@ -6774,27 +6777,27 @@
         <v>5</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>11</v>
@@ -6803,41 +6806,41 @@
         <v>6</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>15</v>
@@ -6846,85 +6849,85 @@
         <v>3</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>11</v>
@@ -6933,18 +6936,18 @@
         <v>6</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>3</v>
@@ -6953,30 +6956,30 @@
         <v>4</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>14</v>
@@ -6985,171 +6988,171 @@
         <v>6</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>15</v>
@@ -7158,7 +7161,7 @@
         <v>16</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>5</v>
@@ -7167,12 +7170,12 @@
         <v>6</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>8</v>
@@ -7181,180 +7184,180 @@
         <v>2</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>1</v>
@@ -7363,114 +7366,114 @@
         <v>2</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>11</v>
@@ -7479,12 +7482,12 @@
         <v>17</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>1</v>
@@ -7493,189 +7496,189 @@
         <v>15</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>10</v>
@@ -7684,53 +7687,53 @@
         <v>5</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>5</v>
@@ -7739,64 +7742,64 @@
         <v>6</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>20</v>
@@ -7805,53 +7808,53 @@
         <v>18</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>15</v>
@@ -7860,21 +7863,21 @@
         <v>12</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>1</v>
@@ -7883,123 +7886,123 @@
         <v>2</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8013,19 +8016,19 @@
         <v>18</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8033,25 +8036,25 @@
         <v>0</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8062,22 +8065,22 @@
         <v>21</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8085,25 +8088,25 @@
         <v>0</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8114,22 +8117,22 @@
         <v>1</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8140,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>16</v>
@@ -8152,10 +8155,10 @@
         <v>14</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8163,13 +8166,13 @@
         <v>0</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>13</v>
@@ -8181,7 +8184,7 @@
         <v>6</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8189,25 +8192,25 @@
         <v>0</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8215,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8241,25 +8244,25 @@
         <v>0</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8267,25 +8270,25 @@
         <v>0</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8296,22 +8299,22 @@
         <v>21</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8319,25 +8322,25 @@
         <v>0</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8345,25 +8348,25 @@
         <v>0</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8371,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
